--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="100">
   <si>
     <t>Property</t>
   </si>
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:24:54+00:00</t>
+    <t>2025-07-11T12:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,37 +153,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'une posologie d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/R4/dosage</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'une posologie d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/R4/dosage</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Elément_posologie</t>
@@ -686,26 +689,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -742,26 +745,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -798,26 +801,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -854,39 +857,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>53</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>54</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -923,27 +926,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>56</v>
       </c>
+      <c r="D3" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -979,27 +982,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>58</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -1035,27 +1038,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -1091,27 +1094,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -1147,48 +1150,104 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1216,35 +1275,91 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1272,207 +1387,95 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1509,39 +1512,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1578,39 +1581,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1647,39 +1650,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1716,26 +1719,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1772,26 +1775,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1828,26 +1831,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1884,39 +1887,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1953,52 +1956,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>35</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2035,48 +2038,104 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2104,35 +2163,35 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2160,229 +2219,229 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2410,35 +2469,35 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2466,285 +2525,229 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2781,48 +2784,104 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2850,35 +2909,35 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2906,151 +2965,95 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3087,39 +3090,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3156,26 +3159,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3212,26 +3215,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3268,26 +3271,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3324,39 +3327,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3393,39 +3396,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>42</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3462,39 +3465,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3531,26 +3534,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3587,26 +3590,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3643,26 +3646,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3699,39 +3702,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3768,39 +3771,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3837,26 +3840,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3893,26 +3896,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3949,95 +3952,95 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4074,104 +4077,104 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>44</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4208,39 +4211,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4277,39 +4280,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4346,26 +4349,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>59</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4373,23 +4376,23 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4397,10 +4400,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4437,78 +4440,78 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4545,26 +4548,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>70</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4601,307 +4604,307 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4938,24 +4941,24 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>73</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -4992,24 +4995,24 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -5046,27 +5049,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>46</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -5102,14 +5105,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5145,14 +5148,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5188,52 +5191,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>76</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5270,39 +5273,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>79</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -5339,117 +5342,117 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>81</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -5486,91 +5489,91 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5607,221 +5610,221 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>87</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -5858,156 +5861,156 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -6044,49 +6047,49 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>96</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6124,23 +6127,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6178,27 +6181,27 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -6234,52 +6237,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>97</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>98</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -6316,26 +6319,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:00:29+00:00</t>
+    <t>2025-07-15T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T07:25:49+00:00</t>
+    <t>2025-07-18T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:27:43+00:00</t>
+    <t>2025-07-18T11:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:28:48+00:00</t>
+    <t>2025-07-18T11:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:31:51+00:00</t>
+    <t>2025-07-18T11:43:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/nr-review/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -135,7 +135,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
